--- a/data/Datasets/data_after_cleaning.xlsx
+++ b/data/Datasets/data_after_cleaning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25311"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E20C3297-1350-4615-9186-71D06655926A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B4EAA21-DED8-4ADA-98C4-88A224E2FFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -739,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
